--- a/data/trans_orig/P34D2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34D2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C2BA019-4391-43CB-ABCC-160CE7DF77AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{690E9E8A-C94E-45E6-B992-01C0E2DD6A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B5BA789F-86CE-4716-A2B2-8FC818AECB2D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DCE03F7D-3567-4754-9AEB-EA23AFC4A3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="142">
   <si>
     <t>Población según el número de veces al día que realizan alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 8,94%)</t>
   </si>
@@ -80,13 +80,13 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>5,89%</t>
+    <t>5,74%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -101,13 +101,13 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>94,11%</t>
+    <t>94,26%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,72%</t>
+    <t>98,67%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -119,13 +119,13 @@
     <t>4,2%</t>
   </si>
   <si>
-    <t>21,77%</t>
+    <t>22,24%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>4,44%</t>
+    <t>4,36%</t>
   </si>
   <si>
     <t>95,75%</t>
@@ -134,13 +134,13 @@
     <t>95,8%</t>
   </si>
   <si>
-    <t>78,23%</t>
+    <t>77,76%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>95,56%</t>
+    <t>95,64%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -149,112 +149,118 @@
     <t>1,84%</t>
   </si>
   <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>76,03%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>82,15%</t>
+    <t>81,09%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>81,47%</t>
+    <t>81,73%</t>
   </si>
   <si>
     <t>99,0%</t>
@@ -266,10 +272,10 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -278,19 +284,19 @@
     <t>4,92%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>93,42%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -299,10 +305,10 @@
     <t>95,08%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -311,49 +317,55 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>10,7%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>89,3%</t>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>91,63%</t>
   </si>
   <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -362,97 +374,91 @@
     <t>4,51%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>10,03%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>22,59%</t>
+    <t>21,05%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>89,97%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>77,41%</t>
+    <t>78,95%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,28%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>98,28%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>97,72%</t>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D32D57-B9F1-42E2-8722-A0B0F39FF728}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC90429-8906-4D90-AED0-B9A6F0D6688B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1611,13 +1617,13 @@
         <v>2411</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1626,13 +1632,13 @@
         <v>452</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -1641,13 +1647,13 @@
         <v>2863</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,10 +1668,10 @@
         <v>31095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1677,10 +1683,10 @@
         <v>13325</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1692,13 +1698,13 @@
         <v>44420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1760,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
@@ -1766,13 +1772,13 @@
         <v>3853</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1787,7 +1793,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -1796,13 +1802,13 @@
         <v>3853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1823,13 @@
         <v>54719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -1835,7 +1841,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1847,13 +1853,13 @@
         <v>74422</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,7 +1915,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5">
         <v>2</v>
@@ -1921,13 +1927,13 @@
         <v>4210</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -1936,13 +1942,13 @@
         <v>4081</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -1951,13 +1957,13 @@
         <v>8291</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1978,13 @@
         <v>99933</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
@@ -1987,13 +1993,13 @@
         <v>44668</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>127</v>
@@ -2002,13 +2008,13 @@
         <v>144601</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2070,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5">
         <v>2</v>
@@ -2076,13 +2082,13 @@
         <v>6885</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2091,13 +2097,13 @@
         <v>2439</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2106,13 +2112,13 @@
         <v>9323</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,13 +2133,13 @@
         <v>145907</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -2142,10 +2148,10 @@
         <v>38502</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>17</v>
@@ -2157,13 +2163,13 @@
         <v>184410</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2237,13 @@
         <v>19100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -2246,13 +2252,13 @@
         <v>12669</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -2261,13 +2267,13 @@
         <v>31769</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,16 +2285,16 @@
         <v>492</v>
       </c>
       <c r="D29" s="7">
-        <v>625928</v>
+        <v>625929</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>259</v>
@@ -2297,13 +2303,13 @@
         <v>237084</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M29" s="7">
         <v>751</v>
@@ -2312,13 +2318,13 @@
         <v>863012</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,7 +2336,7 @@
         <v>510</v>
       </c>
       <c r="D30" s="7">
-        <v>645028</v>
+        <v>645029</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2374,7 +2380,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34D2_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{690E9E8A-C94E-45E6-B992-01C0E2DD6A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42BBF290-2CDA-49F0-9ADA-37A360ECDBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DCE03F7D-3567-4754-9AEB-EA23AFC4A3F6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8D29223-8176-4685-A542-666AFA95BE7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -873,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC90429-8906-4D90-AED0-B9A6F0D6688B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DD5AFE-347D-44B4-94D3-0B93FE1C194E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
